--- a/term6/TW/ИДЗ_5.xlsx
+++ b/term6/TW/ИДЗ_5.xlsx
@@ -8,40 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GH\university\term6\TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CEEE45-5EC5-4684-BEAA-B48CB91A4595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E90BF3E-17C0-452D-AD84-D8AFB69A481C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE7D4D02-A8E7-4666-9B32-B791B528A997}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="ИДЗ" sheetId="1" r:id="rId1"/>
+    <sheet name="вспомогательный" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="b_0">Лист1!$J$79</definedName>
-    <definedName name="b_1">Лист1!$J$78</definedName>
-    <definedName name="gamma">Лист1!$D$66</definedName>
-    <definedName name="n">Лист1!$K$20</definedName>
-    <definedName name="rcrit">Лист1!$G$54</definedName>
-    <definedName name="rs">Лист1!$I$34</definedName>
-    <definedName name="sigx">Лист1!$G$32</definedName>
-    <definedName name="sigy">Лист1!$G$33</definedName>
-    <definedName name="tcrit">Лист1!$G$59</definedName>
-    <definedName name="tobs">Лист1!$I$60</definedName>
-    <definedName name="x">Лист1!$D$26:$H$26</definedName>
-    <definedName name="xa">Лист1!$K$26</definedName>
-    <definedName name="xx">Лист1!$D$28:$H$28</definedName>
-    <definedName name="xxa">Лист1!$K$28</definedName>
-    <definedName name="xy">Лист1!$D$30:$H$30</definedName>
-    <definedName name="xya">Лист1!$K$30</definedName>
-    <definedName name="y">Лист1!$D$27:$H$27</definedName>
-    <definedName name="ya">Лист1!$K$27</definedName>
-    <definedName name="yy">Лист1!$D$29:$H$29</definedName>
-    <definedName name="yya">Лист1!$K$29</definedName>
-    <definedName name="z_1">Лист1!$C$70</definedName>
-    <definedName name="z_2">Лист1!$G$70</definedName>
-    <definedName name="zgamma">Лист1!$H$67</definedName>
-    <definedName name="zr">Лист1!$I$68</definedName>
-    <definedName name="ч">Лист1!$D$26:$H$26</definedName>
+    <definedName name="b_0">ИДЗ!$J$79</definedName>
+    <definedName name="b_1">ИДЗ!$J$78</definedName>
+    <definedName name="gamma">ИДЗ!$D$66</definedName>
+    <definedName name="n">ИДЗ!$K$20</definedName>
+    <definedName name="rcrit">ИДЗ!$G$54</definedName>
+    <definedName name="rs">ИДЗ!$I$34</definedName>
+    <definedName name="s">ИДЗ!$I$98</definedName>
+    <definedName name="sigx">ИДЗ!$G$32</definedName>
+    <definedName name="sigy">ИДЗ!$G$33</definedName>
+    <definedName name="tcrit">ИДЗ!$G$59</definedName>
+    <definedName name="tobs">ИДЗ!$I$60</definedName>
+    <definedName name="x">ИДЗ!$D$26:$H$26</definedName>
+    <definedName name="xa">ИДЗ!$K$26</definedName>
+    <definedName name="xn">ИДЗ!$K$21</definedName>
+    <definedName name="xx">ИДЗ!$D$28:$H$28</definedName>
+    <definedName name="xxa">ИДЗ!$K$28</definedName>
+    <definedName name="xy">ИДЗ!$D$30:$H$30</definedName>
+    <definedName name="xya">ИДЗ!$K$30</definedName>
+    <definedName name="y">ИДЗ!$D$27:$H$27</definedName>
+    <definedName name="ya">ИДЗ!$K$27</definedName>
+    <definedName name="yy">ИДЗ!$D$29:$H$29</definedName>
+    <definedName name="yya">ИДЗ!$K$29</definedName>
+    <definedName name="z_1">ИДЗ!$C$70</definedName>
+    <definedName name="z_2">ИДЗ!$G$70</definedName>
+    <definedName name="zgamma">ИДЗ!$H$67</definedName>
+    <definedName name="zr">ИДЗ!$I$68</definedName>
+    <definedName name="ч">ИДЗ!$D$26:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>ИНДИВИДУАЛЬНОЕ ЗАДАНИЕ 5</t>
   </si>
@@ -2484,6 +2486,318 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> найти точечные оценки параметров уравнения регрессии</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(∑(y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>) / n =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ŝ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n /(n-2)*S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>найти оценку остаточной дисперсии и оценки дисперсий выборочных характеристик параметров уравнения</t>
+  </si>
+  <si>
+    <r>
+      <t>сделать прогноз y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> для x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>на уровне значимости α = 0,05 проверить значимость уравнения регрессии и, в случае значимости, значимость коэффициентов β</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> при α = 0,05 и β</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF98CAB2"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> при α = 0,01</t>
     </r>
   </si>
 </sst>
@@ -2494,7 +2808,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2695,6 +3009,22 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF98CAB2"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2955,7 +3285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3163,6 +3493,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3263,7 +3601,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$86:$E$86</c:f>
+              <c:f>ИДЗ!$D$86:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3278,7 +3616,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$87:$E$87</c:f>
+              <c:f>ИДЗ!$D$87:$E$87</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3330,7 +3668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$89:$H$89</c:f>
+              <c:f>ИДЗ!$D$89:$H$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3354,7 +3692,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$90:$H$90</c:f>
+              <c:f>ИДЗ!$D$90:$H$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3598,9 +3936,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="98CAB2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:solidFill>
                   <a:srgbClr val="98CAB2"/>
@@ -4592,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039C8590-8433-484A-828C-EA872A7C5109}">
   <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7711,30 +8047,30 @@
     </row>
     <row r="95" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="67"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="67"/>
+      <c r="U95" s="67"/>
+      <c r="V95" s="67"/>
+      <c r="W95" s="67"/>
+      <c r="X95" s="67"/>
+      <c r="Y95" s="67"/>
       <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -7743,7 +8079,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="62" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D96" s="62"/>
       <c r="E96" s="62"/>
@@ -7797,17 +8133,24 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="C98" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="I98" s="92">
+        <f>SUMSQ(вспомогательный!C5:G5)/n</f>
+        <v>1.440000000000022E-4</v>
+      </c>
+      <c r="J98" s="92"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
@@ -7825,15 +8168,22 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
       <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="C99" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+      <c r="G99" s="92">
+        <f>n/(n-2)*s</f>
+        <v>2.4000000000000367E-4</v>
+      </c>
+      <c r="H99" s="92"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -7883,58 +8233,62 @@
     </row>
     <row r="101" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="67"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="67"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="67"/>
+      <c r="V101" s="67"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+      <c r="Y101" s="67"/>
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
+      <c r="B102" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="62"/>
+      <c r="T102" s="62"/>
+      <c r="U102" s="62"/>
+      <c r="V102" s="62"/>
+      <c r="W102" s="62"/>
+      <c r="X102" s="62"/>
+      <c r="Y102" s="62"/>
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -7965,103 +8319,334 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="8"/>
     </row>
-    <row r="104" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="5"/>
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
+      <c r="C104" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="93" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, b_0, IF(b_1&lt;0, " - ", " + "), ABS(b_1), "x" )</f>
+        <v>3.014 - 2.1x</v>
+      </c>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="8"/>
+    </row>
+    <row r="105" spans="1:26" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="68">
+        <f>b_0+b_1*xn</f>
+        <v>0.91400000000000281</v>
+      </c>
+      <c r="E105" s="68"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="8"/>
     </row>
     <row r="106" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="8"/>
     </row>
     <row r="107" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="67"/>
+      <c r="N107" s="67"/>
+      <c r="O107" s="67"/>
+      <c r="P107" s="67"/>
+      <c r="Q107" s="67"/>
+      <c r="R107" s="67"/>
+      <c r="S107" s="67"/>
+      <c r="T107" s="67"/>
+      <c r="U107" s="67"/>
+      <c r="V107" s="67"/>
+      <c r="W107" s="67"/>
+      <c r="X107" s="67"/>
+      <c r="Y107" s="67"/>
+      <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="9"/>
+      <c r="B108" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
+      <c r="O108" s="62"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="62"/>
+      <c r="S108" s="62"/>
+      <c r="T108" s="62"/>
+      <c r="U108" s="62"/>
+      <c r="V108" s="62"/>
+      <c r="W108" s="62"/>
+      <c r="X108" s="62"/>
+      <c r="Y108" s="62"/>
+      <c r="Z108" s="8"/>
     </row>
     <row r="109" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
-      <c r="B109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="10"/>
+      <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="8"/>
+    </row>
+    <row r="113" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z113" s="8"/>
+    </row>
+    <row r="114" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="9"/>
     </row>
-    <row r="116" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="9"/>
     </row>
-    <row r="117" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="9"/>
     </row>
@@ -8369,10 +8954,19 @@
       <c r="A204" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="65">
+    <mergeCell ref="C108:Y108"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B101:Y101"/>
+    <mergeCell ref="C102:Y102"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="B107:Y107"/>
     <mergeCell ref="B2:Y2"/>
     <mergeCell ref="C96:Y96"/>
     <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="B95:Y95"/>
     <mergeCell ref="C15:Y15"/>
     <mergeCell ref="C16:Y16"/>
     <mergeCell ref="B19:Y19"/>
@@ -8435,14 +9029,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CF799-8317-4908-93D5-0197E7529D56}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="26" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <f t="array" ref="C3:G3">x</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <f t="array" ref="C4:G4">y</f>
+        <v>3.02</v>
+      </c>
+      <c r="D4">
+        <v>2.81</v>
+      </c>
+      <c r="E4">
+        <v>2.57</v>
+      </c>
+      <c r="F4">
+        <v>2.39</v>
+      </c>
+      <c r="G4">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="91">
+        <f>C4-b_0-b_1*C3</f>
+        <v>5.999999999998451E-3</v>
+      </c>
+      <c r="D5" s="91">
+        <f>D4-b_0-b_1*D3</f>
+        <v>5.9999999999983678E-3</v>
+      </c>
+      <c r="E5" s="91">
+        <f>E4-b_0-b_1*E3</f>
+        <v>-2.4000000000001964E-2</v>
+      </c>
+      <c r="F5" s="91">
+        <f>F4-b_0-b_1*F3</f>
+        <v>5.9999999999981179E-3</v>
+      </c>
+      <c r="G5" s="91">
+        <f>G4-b_0-b_1*G3</f>
+        <v>5.9999999999981179E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>